--- a/UTS_V3921005_CintiaDwiC.xlsx
+++ b/UTS_V3921005_CintiaDwiC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DAD533-AE16-4BC1-9DA0-FB157AF3FEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBFC119-943C-4F53-8FDB-8F89D3E526D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>A</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>SUCCESISNOTFINALFAILURISNOTFATALISITTHECOURAGETOCONTINUETHATCOUNTS</t>
-  </si>
-  <si>
-    <t>VXFFHVLVQRWILQDOIDLOXULVQRWIDWDOLVLWWKHFRXUDJHWRFRQWLQXHWKDWFRXQWV</t>
   </si>
   <si>
     <t>DESKRIPSI</t>
@@ -303,6 +300,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,24 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,27 +619,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -666,10 +663,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -739,62 +736,62 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="L5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="M5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="N5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="P5" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -829,26 +826,26 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -861,47 +858,47 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -936,27 +933,27 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -980,40 +977,40 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="3"/>
@@ -1061,46 +1058,46 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1160,23 +1157,23 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1188,23 +1185,23 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1216,23 +1213,23 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1244,23 +1241,23 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/UTS_V3921005_CintiaDwiC.xlsx
+++ b/UTS_V3921005_CintiaDwiC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBFC119-943C-4F53-8FDB-8F89D3E526D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA25CB-BD72-428A-B7CA-7FFD0D6F45AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>DESKRIPSI</t>
   </si>
   <si>
-    <t>UWEEGUKUPQVHKPCNHKCNWTGKUPQVHCVCNKUKVVJGEQWTIGVQEQPVKPWGVJCVEQWPVU</t>
-  </si>
-  <si>
     <t>Setelah mendapatkan hasil dari enkripsi pada caesar maka dilanjutkan pada kriptografi Vigenere</t>
   </si>
   <si>
@@ -150,7 +147,10 @@
     <t>CINTIACINTIACINTIACINTIACINTIACINTIACINTIACINTIACINTIACINTIACINTIACINTIACIN</t>
   </si>
   <si>
-    <t>WERXOUMCCJDHMXPGPKEVJMOKWXDOPCXKADCKXDWZMQYBVZDQGYCOSPYOICKVGYJIDU</t>
+    <t>GOBHYEWMMTNRWHZQZMWFTWCEBISKUFOFHXCFHBDHIGFUFJNAQIMYCZIYSMUFQITSNE</t>
+  </si>
+  <si>
+    <t>EGOOQEUEZAFRUZMXRMUXGDUEZAFRMFMXUEUFFTQOAGDMSQFAOAZFUZGQFTMFOAGZFE</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="24"/>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -898,7 +898,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1163,7 +1163,7 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -1191,7 +1191,7 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -1219,7 +1219,7 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -1247,7 +1247,7 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
